--- a/pred_ohlcv/54_21/2020-01-19 BCH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 BCH ohlcv.xlsx
@@ -1042,7 +1042,7 @@
         <v>716.8922759800001</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>748.5862021900001</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>799.0505021900001</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>1011.00280219</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>870.4520021900001</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>873.6574021900002</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>750.9711021900002</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>897.6356197600003</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>952.4741197600002</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>848.6207197600003</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>906.4465197600002</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>863.1646690100002</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>951.6542690100002</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>1145.39116724</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>4753.877596319999</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>4860.559296319999</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>5045.058333309998</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>4853.184124629998</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>4651.842724629998</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>4715.342815479998</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>4590.825538799998</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>4637.175038799998</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>4637.175038799998</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>5128.355523029998</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>5410.632391579999</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>5791.600662839998</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>5545.248355689998</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>5545.248355689998</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>5476.816055689997</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>5320.004863909998</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>5257.298263909997</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>5137.132196529998</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>5312.393396529998</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>5079.679796529997</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>4937.458696529998</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>5167.923765079997</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>5266.115865079997</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>5199.080165079997</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>5178.748165079996</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>5374.182065079996</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>5433.274065079996</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>5524.183116879996</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>5516.022516879996</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>5647.314409879996</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>5679.460009879996</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>6074.229691829994</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>6068.364691829995</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>6797.363595949996</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>6826.073495949996</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>6774.305795949996</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>6767.794395949995</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>6773.914795949995</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>6783.873195949996</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>6787.212901309996</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>6779.270701309995</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>6779.270701309995</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>6810.636101159996</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>6845.382401309996</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>6980.602001309996</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>7280.946649939996</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>7280.946649939996</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>7377.604012849996</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>7046.349817359996</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>7194.721163279997</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>12713.33005518</v>
       </c>
       <c r="H532">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>11959.1418025</v>
       </c>
       <c r="H533">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>12423.21818373</v>
       </c>
       <c r="H534">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>12210.01654207</v>
       </c>
       <c r="H535">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>11851.59371644</v>
       </c>
       <c r="H536">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>11958.36834083</v>
       </c>
       <c r="H537">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>12591.21631937</v>
       </c>
       <c r="H538">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>11972.10977979</v>
       </c>
       <c r="H539">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>11655.11787979</v>
       </c>
       <c r="H540">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>11655.11787979</v>
       </c>
       <c r="H541">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>11780.01577979</v>
       </c>
       <c r="H542">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>11634.27134089</v>
       </c>
       <c r="H543">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>11266.26663449</v>
       </c>
       <c r="H544">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>11554.33493449001</v>
       </c>
       <c r="H545">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>11772.05531027001</v>
       </c>
       <c r="H546">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>11921.19791027</v>
       </c>
       <c r="H547">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>12058.77022655</v>
       </c>
       <c r="H548">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>11681.34116574</v>
       </c>
       <c r="H549">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>11560.3569318</v>
       </c>
       <c r="H550">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>11742.50566884</v>
       </c>
       <c r="H551">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>11406.97786909</v>
       </c>
       <c r="H552">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>11525.37036909</v>
       </c>
       <c r="H553">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>11601.78726909</v>
       </c>
       <c r="H554">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>11688.65447803</v>
       </c>
       <c r="H556">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>11749.16843987</v>
       </c>
       <c r="H560">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -27172,7 +27172,7 @@
         <v>6133.751407450008</v>
       </c>
       <c r="H1030">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1031" spans="1:8">
@@ -27198,7 +27198,7 @@
         <v>6203.583956140008</v>
       </c>
       <c r="H1031">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1032" spans="1:8">
@@ -27224,7 +27224,7 @@
         <v>6002.948510000008</v>
       </c>
       <c r="H1032">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1033" spans="1:8">
@@ -27250,7 +27250,7 @@
         <v>6148.576510000008</v>
       </c>
       <c r="H1033">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1034" spans="1:8">
@@ -27276,7 +27276,7 @@
         <v>6054.552257160008</v>
       </c>
       <c r="H1034">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1035" spans="1:8">
@@ -27302,7 +27302,7 @@
         <v>5965.491557160008</v>
       </c>
       <c r="H1035">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1036" spans="1:8">
@@ -27328,7 +27328,7 @@
         <v>5935.645557160008</v>
       </c>
       <c r="H1036">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1037" spans="1:8">
@@ -27354,7 +27354,7 @@
         <v>6023.630257160008</v>
       </c>
       <c r="H1037">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1038" spans="1:8">
@@ -27380,7 +27380,7 @@
         <v>6001.455857160008</v>
       </c>
       <c r="H1038">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1039" spans="1:8">
@@ -27406,7 +27406,7 @@
         <v>5908.370529920008</v>
       </c>
       <c r="H1039">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1040" spans="1:8">
@@ -27484,7 +27484,7 @@
         <v>6087.630429920008</v>
       </c>
       <c r="H1042">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1043" spans="1:8">
@@ -27510,7 +27510,7 @@
         <v>6047.650325590008</v>
       </c>
       <c r="H1043">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1044" spans="1:8">
@@ -27536,7 +27536,7 @@
         <v>6100.244925590008</v>
       </c>
       <c r="H1044">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1045" spans="1:8">
@@ -27562,7 +27562,7 @@
         <v>6115.647838430008</v>
       </c>
       <c r="H1045">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1046" spans="1:8">
@@ -27588,7 +27588,7 @@
         <v>6196.867938430009</v>
       </c>
       <c r="H1046">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1047" spans="1:8">
@@ -27614,7 +27614,7 @@
         <v>6219.247638430009</v>
       </c>
       <c r="H1047">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1048" spans="1:8">
@@ -27692,7 +27692,7 @@
         <v>6235.566041890009</v>
       </c>
       <c r="H1050">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1051" spans="1:8">
@@ -27718,7 +27718,7 @@
         <v>6209.778341890009</v>
       </c>
       <c r="H1051">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1052" spans="1:8">
@@ -27744,7 +27744,7 @@
         <v>6201.331441890009</v>
       </c>
       <c r="H1052">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1053" spans="1:8">
@@ -27770,7 +27770,7 @@
         <v>6298.346541890009</v>
       </c>
       <c r="H1053">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1054" spans="1:8">
@@ -27796,7 +27796,7 @@
         <v>6401.948394420008</v>
       </c>
       <c r="H1054">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1055" spans="1:8">
@@ -27822,7 +27822,7 @@
         <v>6513.747130840008</v>
       </c>
       <c r="H1055">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1056" spans="1:8">
@@ -27848,7 +27848,7 @@
         <v>6717.468241190008</v>
       </c>
       <c r="H1056">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1057" spans="1:8">
@@ -27874,7 +27874,7 @@
         <v>6857.664137080009</v>
       </c>
       <c r="H1057">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1058" spans="1:8">
@@ -27900,7 +27900,7 @@
         <v>6699.930976110008</v>
       </c>
       <c r="H1058">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1059" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-19 BCH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 BCH ohlcv.xlsx
@@ -1042,7 +1042,7 @@
         <v>716.8922759800001</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>748.5862021900001</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>799.0505021900001</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>1011.00280219</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>870.4520021900001</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>873.6574021900002</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>750.9711021900002</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>897.6356197600003</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>952.4741197600002</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>848.6207197600003</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>906.4465197600002</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>4753.877596319999</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>4860.559296319999</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>5045.058333309998</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>4853.184124629998</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>4651.842724629998</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>4715.342815479998</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>4590.825538799998</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>4637.175038799998</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>4637.175038799998</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>5128.355523029998</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>5410.632391579999</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>5791.600662839998</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>5545.248355689998</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>5545.248355689998</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>5476.816055689997</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>5320.004863909998</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>5257.298263909997</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>5137.132196529998</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>5312.393396529998</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>5079.679796529997</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>4937.458696529998</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>5167.923765079997</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>5266.115865079997</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>5199.080165079997</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>5178.748165079996</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>5374.182065079996</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>5433.274065079996</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>5524.183116879996</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>5516.022516879996</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>5647.314409879996</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>5679.460009879996</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>6074.229691829994</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>6068.364691829995</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>6797.363595949996</v>
       </c>
       <c r="H378">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>6826.073495949996</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>6774.305795949996</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>6767.794395949995</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>6773.914795949995</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>6783.873195949996</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>6787.212901309996</v>
       </c>
       <c r="H384">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>6779.270701309995</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>6779.270701309995</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>6810.636101159996</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>6845.382401309996</v>
       </c>
       <c r="H388">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>6980.602001309996</v>
       </c>
       <c r="H389">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>7280.946649939996</v>
       </c>
       <c r="H390">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>7280.946649939996</v>
       </c>
       <c r="H391">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>7377.604012849996</v>
       </c>
       <c r="H392">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>7046.349817359996</v>
       </c>
       <c r="H394">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>7194.721163279997</v>
       </c>
       <c r="H402">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>11467.83304014</v>
       </c>
       <c r="H526">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>11051.17118183</v>
       </c>
       <c r="H527">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>11051.17118183</v>
       </c>
       <c r="H528">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>11190.8355522</v>
       </c>
       <c r="H529">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>11330.4157522</v>
       </c>
       <c r="H530">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>11772.90335178</v>
       </c>
       <c r="H531">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>12713.33005518</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>11959.1418025</v>
       </c>
       <c r="H533">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>12423.21818373</v>
       </c>
       <c r="H534">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>12210.01654207</v>
       </c>
       <c r="H535">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>11851.59371644</v>
       </c>
       <c r="H536">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>11958.36834083</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>12591.21631937</v>
       </c>
       <c r="H538">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>11972.10977979</v>
       </c>
       <c r="H539">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>11655.11787979</v>
       </c>
       <c r="H540">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>11655.11787979</v>
       </c>
       <c r="H541">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>11780.01577979</v>
       </c>
       <c r="H542">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>11634.27134089</v>
       </c>
       <c r="H543">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>11266.26663449</v>
       </c>
       <c r="H544">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>11554.33493449001</v>
       </c>
       <c r="H545">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>11772.05531027001</v>
       </c>
       <c r="H546">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>11921.19791027</v>
       </c>
       <c r="H547">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>12058.77022655</v>
       </c>
       <c r="H548">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>11681.34116574</v>
       </c>
       <c r="H549">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>11560.3569318</v>
       </c>
       <c r="H550">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>11742.50566884</v>
       </c>
       <c r="H551">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>11406.97786909</v>
       </c>
       <c r="H552">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>11525.37036909</v>
       </c>
       <c r="H553">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>11601.78726909</v>
       </c>
       <c r="H554">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>11538.43196909</v>
       </c>
       <c r="H555">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>11688.65447803</v>
       </c>
       <c r="H556">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>11759.76407803</v>
       </c>
       <c r="H557">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>11825.18525111</v>
       </c>
       <c r="H558">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>11722.23035111</v>
       </c>
       <c r="H559">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>11749.16843987</v>
       </c>
       <c r="H560">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -27172,7 +27172,7 @@
         <v>6133.751407450008</v>
       </c>
       <c r="H1030">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1031" spans="1:8">
@@ -27198,7 +27198,7 @@
         <v>6203.583956140008</v>
       </c>
       <c r="H1031">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1032" spans="1:8">
@@ -27224,7 +27224,7 @@
         <v>6002.948510000008</v>
       </c>
       <c r="H1032">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1033" spans="1:8">
@@ -27250,7 +27250,7 @@
         <v>6148.576510000008</v>
       </c>
       <c r="H1033">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1034" spans="1:8">
@@ -27276,7 +27276,7 @@
         <v>6054.552257160008</v>
       </c>
       <c r="H1034">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1035" spans="1:8">
@@ -27302,7 +27302,7 @@
         <v>5965.491557160008</v>
       </c>
       <c r="H1035">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1036" spans="1:8">
@@ -27328,7 +27328,7 @@
         <v>5935.645557160008</v>
       </c>
       <c r="H1036">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1037" spans="1:8">
@@ -27354,7 +27354,7 @@
         <v>6023.630257160008</v>
       </c>
       <c r="H1037">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1038" spans="1:8">
@@ -27380,7 +27380,7 @@
         <v>6001.455857160008</v>
       </c>
       <c r="H1038">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1039" spans="1:8">
@@ -27406,7 +27406,7 @@
         <v>5908.370529920008</v>
       </c>
       <c r="H1039">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1040" spans="1:8">
@@ -27484,7 +27484,7 @@
         <v>6087.630429920008</v>
       </c>
       <c r="H1042">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1043" spans="1:8">
@@ -27510,7 +27510,7 @@
         <v>6047.650325590008</v>
       </c>
       <c r="H1043">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1044" spans="1:8">
@@ -27536,7 +27536,7 @@
         <v>6100.244925590008</v>
       </c>
       <c r="H1044">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1045" spans="1:8">
@@ -27562,7 +27562,7 @@
         <v>6115.647838430008</v>
       </c>
       <c r="H1045">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1046" spans="1:8">
@@ -27588,7 +27588,7 @@
         <v>6196.867938430009</v>
       </c>
       <c r="H1046">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1047" spans="1:8">
@@ -27614,7 +27614,7 @@
         <v>6219.247638430009</v>
       </c>
       <c r="H1047">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1048" spans="1:8">
@@ -27692,7 +27692,7 @@
         <v>6235.566041890009</v>
       </c>
       <c r="H1050">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1051" spans="1:8">
@@ -27718,7 +27718,7 @@
         <v>6209.778341890009</v>
       </c>
       <c r="H1051">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1052" spans="1:8">
@@ -27744,7 +27744,7 @@
         <v>6201.331441890009</v>
       </c>
       <c r="H1052">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1053" spans="1:8">
@@ -27770,7 +27770,7 @@
         <v>6298.346541890009</v>
       </c>
       <c r="H1053">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1054" spans="1:8">
@@ -27796,7 +27796,7 @@
         <v>6401.948394420008</v>
       </c>
       <c r="H1054">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1055" spans="1:8">
@@ -27822,7 +27822,7 @@
         <v>6513.747130840008</v>
       </c>
       <c r="H1055">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1056" spans="1:8">
@@ -27848,7 +27848,7 @@
         <v>6717.468241190008</v>
       </c>
       <c r="H1056">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1057" spans="1:8">
@@ -27874,7 +27874,7 @@
         <v>6857.664137080009</v>
       </c>
       <c r="H1057">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1058" spans="1:8">
@@ -27900,7 +27900,7 @@
         <v>6699.930976110008</v>
       </c>
       <c r="H1058">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1059" spans="1:8">
